--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AVERAGE_10_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>0.9356920089934135</v>
       </c>
-      <c r="BA2">
-        <v>0.9356920089934135</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,16 +845,13 @@
       <c r="AZ3">
         <v>1.046072090605833</v>
       </c>
-      <c r="BA3">
-        <v>1.046072090605833</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
       <c r="B4">
-        <v>1.045874667975482</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C4">
         <v>1.960591199849219</v>
@@ -1012,16 +1003,13 @@
       <c r="AZ4">
         <v>1.960591199849219</v>
       </c>
-      <c r="BA4">
-        <v>1.960591199849219</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
       <c r="B5">
-        <v>1.046012740397217</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C5">
         <v>-0.2410745035013093</v>
@@ -1173,19 +1161,16 @@
       <c r="AZ5">
         <v>-0.2410745035013093</v>
       </c>
-      <c r="BA5">
-        <v>-0.2410745035013093</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
       <c r="B6">
-        <v>1.046151165323522</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C6">
-        <v>1.075949367088569</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D6">
         <v>-2.989151587480549</v>
@@ -1334,19 +1319,16 @@
       <c r="AZ6">
         <v>-2.989151587480549</v>
       </c>
-      <c r="BA6">
-        <v>-2.989151587480549</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>1.023960534659093</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C7">
-        <v>1.445892867308032</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D7">
         <v>-1.992436460080896</v>
@@ -1495,22 +1477,19 @@
       <c r="AZ7">
         <v>-1.992436460080896</v>
       </c>
-      <c r="BA7">
-        <v>-1.992436460080896</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
       <c r="B8">
-        <v>1.023960534659093</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C8">
-        <v>1.234498625217455</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D8">
-        <v>-1.139107420541492</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E8">
         <v>-2.911016840458359</v>
@@ -1656,22 +1635,19 @@
       <c r="AZ8">
         <v>-2.911016840458359</v>
       </c>
-      <c r="BA8">
-        <v>-2.911016840458359</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
       <c r="B9">
-        <v>1.023960534659093</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C9">
-        <v>0.7926389889695713</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D9">
-        <v>-0.5689480281705812</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E9">
         <v>0.5161858965418986</v>
@@ -1817,25 +1793,22 @@
       <c r="AZ9">
         <v>0.5161858965418986</v>
       </c>
-      <c r="BA9">
-        <v>0.5161858965418986</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
       <c r="B10">
-        <v>1.023960534659093</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C10">
-        <v>0.5774307083149921</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D10">
-        <v>-0.4999999999999716</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E10">
-        <v>0.5323987858790673</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F10">
         <v>3.496635313038965</v>
@@ -1978,25 +1951,22 @@
       <c r="AZ10">
         <v>3.496635313038965</v>
       </c>
-      <c r="BA10">
-        <v>3.496635313038965</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
       <c r="B11">
-        <v>1.023960534659093</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C11">
-        <v>0.9808545947606417</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D11">
-        <v>-0.3875958555918149</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E11">
-        <v>0.6663395013000581</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F11">
         <v>2.022610195364777</v>
@@ -2139,28 +2109,25 @@
       <c r="AZ11">
         <v>2.022610195364777</v>
       </c>
-      <c r="BA11">
-        <v>2.022610195364777</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
       <c r="B12">
-        <v>1.023960534659093</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C12">
-        <v>0.9808545947606417</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D12">
-        <v>-0.3875958555918149</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E12">
-        <v>0.8292075001161407</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F12">
-        <v>1.499999999999986</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G12">
         <v>4.001048740912381</v>
@@ -2300,28 +2267,25 @@
       <c r="AZ12">
         <v>4.001048740912381</v>
       </c>
-      <c r="BA12">
-        <v>4.001048740912381</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
       <c r="B13">
-        <v>1.023960534659093</v>
+        <v>0.9908820497996232</v>
       </c>
       <c r="C13">
-        <v>0.9808545947606417</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D13">
-        <v>-0.3875958555918149</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E13">
-        <v>1.119233740021656</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G13">
         <v>2.471556584906722</v>
@@ -2461,31 +2425,25 @@
       <c r="AZ13">
         <v>2.471556584906722</v>
       </c>
-      <c r="BA13">
-        <v>2.471556584906722</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="B14">
-        <v>1.023960534659093</v>
-      </c>
       <c r="C14">
-        <v>0.9808545947606417</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D14">
-        <v>-0.3875958555918149</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E14">
-        <v>1.123485585928023</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F14">
-        <v>0.7999999999999829</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G14">
-        <v>1.200000000000003</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H14">
         <v>1.809198400323567</v>
@@ -2622,31 +2580,25 @@
       <c r="AZ14">
         <v>1.809198400323567</v>
       </c>
-      <c r="BA14">
-        <v>1.809198400323567</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="B15">
-        <v>1.023960534659093</v>
-      </c>
       <c r="C15">
-        <v>0.9808545947606417</v>
+        <v>0.925320198986789</v>
       </c>
       <c r="D15">
-        <v>-0.3875958555918149</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E15">
-        <v>-0.3346828381734269</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F15">
-        <v>0.1201752013424496</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G15">
-        <v>1.499459244827349</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H15">
         <v>0.9930361476913703</v>
@@ -2783,34 +2735,25 @@
       <c r="AZ15">
         <v>0.9930361476913703</v>
       </c>
-      <c r="BA15">
-        <v>0.9930361476913703</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="B16">
-        <v>1.023960534659093</v>
-      </c>
-      <c r="C16">
-        <v>0.9808545947606417</v>
-      </c>
       <c r="D16">
-        <v>-0.3875958555918149</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E16">
-        <v>-0.3346828381734269</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F16">
-        <v>0.1201752013424496</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G16">
-        <v>1.699999999999974</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H16">
-        <v>1.200000000000003</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I16">
         <v>2.297598938510475</v>
@@ -2944,31 +2887,25 @@
       <c r="AZ16">
         <v>2.297598938510475</v>
       </c>
-      <c r="BA16">
-        <v>2.297598938510475</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.9808545947606417</v>
-      </c>
       <c r="D17">
-        <v>-0.3875958555918149</v>
+        <v>-0.2133845419357149</v>
       </c>
       <c r="E17">
-        <v>-0.3346828381734269</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F17">
-        <v>0.1201752013424496</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G17">
-        <v>1.799999999999997</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H17">
-        <v>1.399999999999963</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I17">
         <v>1.683866211357127</v>
@@ -3102,34 +3039,25 @@
       <c r="AZ17">
         <v>1.683866211357127</v>
       </c>
-      <c r="BA17">
-        <v>1.683866211357127</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.9808545947606417</v>
-      </c>
-      <c r="D18">
-        <v>-0.3875958555918149</v>
-      </c>
       <c r="E18">
-        <v>-0.3346828381734269</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F18">
-        <v>0.1201752013424496</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G18">
-        <v>1.899999999999963</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H18">
-        <v>1.600000000000051</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I18">
-        <v>1.62790453705955</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J18">
         <v>-0.2000000000000028</v>
@@ -3260,34 +3188,25 @@
       <c r="AZ18">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="BA18">
-        <v>-0.2000000000000028</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.9808545947606417</v>
-      </c>
-      <c r="D19">
-        <v>-0.3875958555918149</v>
-      </c>
       <c r="E19">
-        <v>-0.3346828381734269</v>
+        <v>-0.4593922744413437</v>
       </c>
       <c r="F19">
-        <v>0.1201752013424496</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G19">
-        <v>2.060749597559203</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H19">
-        <v>1.95102712787797</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I19">
-        <v>1.63134579859603</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3418,37 +3337,25 @@
       <c r="AZ19">
         <v>0</v>
       </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.9808545947606417</v>
-      </c>
-      <c r="D20">
-        <v>-0.3875958555918149</v>
-      </c>
-      <c r="E20">
-        <v>-0.3346828381734269</v>
-      </c>
       <c r="F20">
-        <v>0.1201752013424496</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G20">
-        <v>2.060749597559203</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H20">
-        <v>1.95102712787797</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I20">
-        <v>1.715918598939155</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J20">
-        <v>0.6999999999999886</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K20">
         <v>0.4230141822949065</v>
@@ -3576,31 +3483,25 @@
       <c r="AZ20">
         <v>0.4230141822949065</v>
       </c>
-      <c r="BA20">
-        <v>0.4230141822949065</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.3346828381734269</v>
-      </c>
       <c r="F21">
-        <v>0.1201752013424496</v>
+        <v>0.1844107312872993</v>
       </c>
       <c r="G21">
-        <v>2.060749597559203</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H21">
-        <v>1.95102712787797</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I21">
-        <v>1.91634507258496</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J21">
-        <v>1.400000000000006</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K21">
         <v>0.1000000000000085</v>
@@ -3728,34 +3629,25 @@
       <c r="AZ21">
         <v>0.1000000000000085</v>
       </c>
-      <c r="BA21">
-        <v>0.1000000000000085</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.3346828381734269</v>
-      </c>
-      <c r="F22">
-        <v>0.1201752013424496</v>
-      </c>
       <c r="G22">
-        <v>2.060749597559203</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H22">
-        <v>1.95102712787797</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I22">
-        <v>1.916768898709549</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J22">
-        <v>1.400000000000006</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K22">
-        <v>0.6999999999999602</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L22">
         <v>-0.8135079514120491</v>
@@ -3880,34 +3772,25 @@
       <c r="AZ22">
         <v>-0.8135079514120491</v>
       </c>
-      <c r="BA22">
-        <v>-0.8135079514120491</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.3346828381734269</v>
-      </c>
-      <c r="F23">
-        <v>0.1201752013424496</v>
-      </c>
       <c r="G23">
-        <v>2.060749597559203</v>
+        <v>0.6334948539092849</v>
       </c>
       <c r="H23">
-        <v>1.95102712787797</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I23">
-        <v>1.80635391886785</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J23">
-        <v>1.255525628278926</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K23">
-        <v>0.9003551961595377</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L23">
         <v>0.5011757240633443</v>
@@ -4032,37 +3915,25 @@
       <c r="AZ23">
         <v>0.5011757240633443</v>
       </c>
-      <c r="BA23">
-        <v>0.5011757240633443</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.3346828381734269</v>
-      </c>
-      <c r="F24">
-        <v>0.1201752013424496</v>
-      </c>
-      <c r="G24">
-        <v>2.060749597559203</v>
-      </c>
       <c r="H24">
-        <v>1.95102712787797</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I24">
-        <v>1.80635391886785</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J24">
-        <v>1.255525628278926</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K24">
-        <v>1.099884565599595</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L24">
-        <v>0.9989897578154938</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M24">
         <v>1.792421234023649</v>
@@ -4184,31 +4055,25 @@
       <c r="AZ24">
         <v>1.792421234023649</v>
       </c>
-      <c r="BA24">
-        <v>1.792421234023649</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>2.060749597559203</v>
-      </c>
       <c r="H25">
-        <v>1.95102712787797</v>
+        <v>0.7417666390759876</v>
       </c>
       <c r="I25">
-        <v>1.80635391886785</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J25">
-        <v>1.255525628278926</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K25">
-        <v>1.200107523035143</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L25">
-        <v>1.300430172270325</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M25">
         <v>1.000583728414611</v>
@@ -4330,34 +4195,25 @@
       <c r="AZ25">
         <v>1.000583728414611</v>
       </c>
-      <c r="BA25">
-        <v>1.000583728414611</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>2.060749597559203</v>
-      </c>
-      <c r="H26">
-        <v>1.95102712787797</v>
-      </c>
       <c r="I26">
-        <v>1.80635391886785</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J26">
-        <v>1.255525628278926</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K26">
-        <v>1.199862210546272</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L26">
-        <v>1.299745704579493</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M26">
-        <v>0.9996338528585937</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N26">
         <v>1.700400414966595</v>
@@ -4476,34 +4332,25 @@
       <c r="AZ26">
         <v>1.700400414966595</v>
       </c>
-      <c r="BA26">
-        <v>1.700400414966595</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>2.060749597559203</v>
-      </c>
-      <c r="H27">
-        <v>1.95102712787797</v>
-      </c>
       <c r="I27">
-        <v>1.80635391886785</v>
+        <v>1.638071958818892</v>
       </c>
       <c r="J27">
-        <v>1.255525628278926</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K27">
-        <v>0.7107089888992547</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L27">
-        <v>0.5293713800968647</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M27">
-        <v>1.300666563868958</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N27">
         <v>1.466172678153498</v>
@@ -4622,37 +4469,25 @@
       <c r="AZ27">
         <v>1.466172678153498</v>
       </c>
-      <c r="BA27">
-        <v>1.466172678153498</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>2.060749597559203</v>
-      </c>
-      <c r="H28">
-        <v>1.95102712787797</v>
-      </c>
-      <c r="I28">
-        <v>1.80635391886785</v>
-      </c>
       <c r="J28">
-        <v>1.255525628278926</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K28">
-        <v>0.7107089888992547</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L28">
-        <v>0.5293713800968647</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M28">
-        <v>1.399998577930447</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N28">
-        <v>1.486323995277729</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O28">
         <v>1.081988526104823</v>
@@ -4768,31 +4603,25 @@
       <c r="AZ28">
         <v>1.081988526104823</v>
       </c>
-      <c r="BA28">
-        <v>1.081988526104823</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>1.80635391886785</v>
-      </c>
       <c r="J29">
-        <v>1.255525628278926</v>
+        <v>1.857555053210538</v>
       </c>
       <c r="K29">
-        <v>0.7107089888992547</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L29">
-        <v>0.5293713800968647</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M29">
-        <v>1.500000484182394</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N29">
-        <v>1.583835598283457</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O29">
         <v>1.353592454001856</v>
@@ -4908,34 +4737,25 @@
       <c r="AZ29">
         <v>1.353592454001856</v>
       </c>
-      <c r="BA29">
-        <v>1.353592454001856</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>1.80635391886785</v>
-      </c>
-      <c r="J30">
-        <v>1.255525628278926</v>
-      </c>
       <c r="K30">
-        <v>0.7107089888992547</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L30">
-        <v>0.5293713800968647</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M30">
-        <v>1.600001147842804</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N30">
-        <v>1.623628830547347</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O30">
-        <v>1.359391822879076</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P30">
         <v>0.4035607671893757</v>
@@ -5048,34 +4868,25 @@
       <c r="AZ30">
         <v>0.4035607671893757</v>
       </c>
-      <c r="BA30">
-        <v>0.4035607671893757</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>1.80635391886785</v>
-      </c>
-      <c r="J31">
-        <v>1.255525628278926</v>
-      </c>
       <c r="K31">
-        <v>0.7107089888992547</v>
+        <v>1.357931920599655</v>
       </c>
       <c r="L31">
-        <v>0.5293713800968647</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M31">
-        <v>0.938097336177276</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N31">
-        <v>1.044103425231819</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O31">
-        <v>1.371463512519668</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P31">
         <v>0.9949231225214561</v>
@@ -5188,37 +4999,25 @@
       <c r="AZ31">
         <v>0.9949231225214561</v>
       </c>
-      <c r="BA31">
-        <v>0.9949231225214561</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>1.80635391886785</v>
-      </c>
-      <c r="J32">
-        <v>1.255525628278926</v>
-      </c>
-      <c r="K32">
-        <v>0.7107089888992547</v>
-      </c>
       <c r="L32">
-        <v>0.5293713800968647</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M32">
-        <v>0.938097336177276</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N32">
-        <v>1.044103425231819</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O32">
-        <v>1.385631297577646</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P32">
-        <v>1.249999999999972</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q32">
         <v>1.476517947415175</v>
@@ -5328,31 +5127,25 @@
       <c r="AZ32">
         <v>1.476517947415175</v>
       </c>
-      <c r="BA32">
-        <v>1.476517947415175</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.7107089888992547</v>
-      </c>
       <c r="L33">
-        <v>0.5293713800968647</v>
+        <v>0.6794381652828747</v>
       </c>
       <c r="M33">
-        <v>0.938097336177276</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N33">
-        <v>1.044103425231819</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O33">
-        <v>1.489507944432205</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P33">
-        <v>1.350000000000051</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q33">
         <v>1.292287545731185</v>
@@ -5462,34 +5255,25 @@
       <c r="AZ33">
         <v>1.292287545731185</v>
       </c>
-      <c r="BA33">
-        <v>1.292287545731185</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.7107089888992547</v>
-      </c>
-      <c r="L34">
-        <v>0.5293713800968647</v>
-      </c>
       <c r="M34">
-        <v>0.938097336177276</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N34">
-        <v>1.044103425231819</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O34">
-        <v>1.488718727879728</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P34">
-        <v>1.400000000000006</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q34">
-        <v>1.461453827648725</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R34">
         <v>0.4919486237229052</v>
@@ -5596,34 +5380,25 @@
       <c r="AZ34">
         <v>0.4919486237229052</v>
       </c>
-      <c r="BA34">
-        <v>0.4919486237229052</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.7107089888992547</v>
-      </c>
-      <c r="L35">
-        <v>0.5293713800968647</v>
-      </c>
       <c r="M35">
-        <v>0.938097336177276</v>
+        <v>0.6785152067252069</v>
       </c>
       <c r="N35">
-        <v>1.044103425231819</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O35">
-        <v>1.369745110692971</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P35">
-        <v>1.200122169135224</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q35">
-        <v>1.369781572548106</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R35">
         <v>1.268067508957756</v>
@@ -5730,37 +5505,25 @@
       <c r="AZ35">
         <v>1.268067508957756</v>
       </c>
-      <c r="BA35">
-        <v>1.268067508957756</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.7107089888992547</v>
-      </c>
-      <c r="L36">
-        <v>0.5293713800968647</v>
-      </c>
-      <c r="M36">
-        <v>0.938097336177276</v>
-      </c>
       <c r="N36">
-        <v>1.044103425231819</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O36">
-        <v>1.369745110692971</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P36">
-        <v>1.200122169135224</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q36">
-        <v>1.282921074986021</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R36">
-        <v>1.357366269562704</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S36">
         <v>0.9496767498412169</v>
@@ -5864,31 +5627,25 @@
       <c r="AZ36">
         <v>0.9496767498412169</v>
       </c>
-      <c r="BA36">
-        <v>0.9496767498412169</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.938097336177276</v>
-      </c>
       <c r="N37">
-        <v>1.044103425231819</v>
+        <v>0.597026001050456</v>
       </c>
       <c r="O37">
-        <v>1.369745110692971</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P37">
-        <v>1.200122169135224</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q37">
-        <v>1.19534638469645</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R37">
-        <v>1.259093942180712</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S37">
         <v>1.183775223599739</v>
@@ -5992,34 +5749,25 @@
       <c r="AZ37">
         <v>1.183775223599739</v>
       </c>
-      <c r="BA37">
-        <v>1.183775223599739</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.938097336177276</v>
-      </c>
-      <c r="N38">
-        <v>1.044103425231819</v>
-      </c>
       <c r="O38">
-        <v>1.369745110692971</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P38">
-        <v>1.200122169135224</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q38">
-        <v>1.139999999999986</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R38">
-        <v>1.16734272858497</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S38">
-        <v>1.183788656922189</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T38">
         <v>1.014999674053939</v>
@@ -6120,34 +5868,25 @@
       <c r="AZ38">
         <v>1.014999674053939</v>
       </c>
-      <c r="BA38">
-        <v>1.014999674053939</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.938097336177276</v>
-      </c>
-      <c r="N39">
-        <v>1.044103425231819</v>
-      </c>
       <c r="O39">
-        <v>1.369745110692971</v>
+        <v>0.8605840990611242</v>
       </c>
       <c r="P39">
-        <v>1.200122169135224</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q39">
-        <v>1.197038469673834</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R39">
-        <v>1.117352604141502</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S39">
-        <v>1.099952939361089</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T39">
         <v>1.191228972472018</v>
@@ -6248,37 +5987,25 @@
       <c r="AZ39">
         <v>1.191228972472018</v>
       </c>
-      <c r="BA39">
-        <v>1.191228972472018</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.938097336177276</v>
-      </c>
-      <c r="N40">
-        <v>1.044103425231819</v>
-      </c>
-      <c r="O40">
-        <v>1.369745110692971</v>
-      </c>
       <c r="P40">
-        <v>1.200122169135224</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q40">
-        <v>1.197038469673834</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R40">
-        <v>1.068441551176875</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S40">
-        <v>1.099999999999966</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T40">
-        <v>1.083176667368619</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U40">
         <v>1.836987253553829</v>
@@ -6376,31 +6103,25 @@
       <c r="AZ40">
         <v>1.836987253553829</v>
       </c>
-      <c r="BA40">
-        <v>1.836987253553829</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>1.369745110692971</v>
-      </c>
       <c r="P41">
-        <v>1.200122169135224</v>
+        <v>0.948131069802716</v>
       </c>
       <c r="Q41">
-        <v>1.197038469673834</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R41">
-        <v>1.018983966766001</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S41">
-        <v>1.099999999999994</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T41">
-        <v>1.058404744744863</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U41">
         <v>1.33483377666461</v>
@@ -6498,34 +6219,25 @@
       <c r="AZ41">
         <v>1.33483377666461</v>
       </c>
-      <c r="BA41">
-        <v>1.33483377666461</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>1.369745110692971</v>
-      </c>
-      <c r="P42">
-        <v>1.200122169135224</v>
-      </c>
       <c r="Q42">
-        <v>1.197038469673834</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R42">
-        <v>1.011331553407885</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S42">
-        <v>1.099999999999952</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T42">
-        <v>1.058408204105859</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U42">
-        <v>1.083762275242407</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V42">
         <v>1.622456305393911</v>
@@ -6620,37 +6332,28 @@
       <c r="AZ42">
         <v>1.622456305393911</v>
       </c>
-      <c r="BA42">
-        <v>1.622456305393911</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>1.369745110692971</v>
-      </c>
-      <c r="P43">
-        <v>1.200122169135224</v>
-      </c>
       <c r="Q43">
-        <v>1.197038469673834</v>
+        <v>1.256244841852222</v>
       </c>
       <c r="R43">
-        <v>1.105221629423249</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S43">
-        <v>1.076949724813599</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T43">
-        <v>1.058422770026397</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U43">
-        <v>1.067573485035254</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V43">
-        <v>1.537389918320486</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W43">
         <v>1.303119407694879</v>
@@ -6742,40 +6445,28 @@
       <c r="AZ43">
         <v>1.303119407694879</v>
       </c>
-      <c r="BA43">
-        <v>1.303119407694879</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>1.369745110692971</v>
-      </c>
-      <c r="P44">
-        <v>1.200122169135224</v>
-      </c>
-      <c r="Q44">
-        <v>1.197038469673834</v>
-      </c>
       <c r="R44">
-        <v>1.105221629423249</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S44">
-        <v>1.076949724813599</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T44">
-        <v>1.058421480670546</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U44">
-        <v>1.050327450489561</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V44">
-        <v>1.290079649540161</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W44">
-        <v>1.217379116243706</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X44">
         <v>0.3932797567441497</v>
@@ -6864,37 +6555,31 @@
       <c r="AZ44">
         <v>0.3932797567441497</v>
       </c>
-      <c r="BA44">
-        <v>0.3932797567441497</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>1.197038469673834</v>
-      </c>
       <c r="R45">
-        <v>1.105221629423249</v>
+        <v>1.152945958876463</v>
       </c>
       <c r="S45">
-        <v>1.076949724813599</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T45">
-        <v>1.058424945524735</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U45">
-        <v>1.050332267839124</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V45">
-        <v>1.107807608059701</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W45">
-        <v>1.052179906974288</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X45">
-        <v>1.05265349408306</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y45">
         <v>1.381065482681691</v>
@@ -6980,40 +6665,31 @@
       <c r="AZ45">
         <v>1.381065482681691</v>
       </c>
-      <c r="BA45">
-        <v>1.381065482681691</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>1.197038469673834</v>
-      </c>
-      <c r="R46">
-        <v>1.105221629423249</v>
-      </c>
       <c r="S46">
-        <v>1.076949724813599</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T46">
-        <v>1.058428411515507</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U46">
-        <v>1.050337083250213</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V46">
-        <v>1.107831271006646</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W46">
-        <v>1.052307872837119</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X46">
-        <v>1.052782374001922</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y46">
-        <v>1.382771491547857</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z46">
         <v>0.7</v>
@@ -7096,43 +6772,34 @@
       <c r="AZ46">
         <v>0.7</v>
       </c>
-      <c r="BA46">
-        <v>0.7</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>1.197038469673834</v>
-      </c>
-      <c r="R47">
-        <v>1.105221629423249</v>
-      </c>
       <c r="S47">
-        <v>1.076949724813599</v>
+        <v>1.049633846908549</v>
       </c>
       <c r="T47">
-        <v>1.082369109408222</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U47">
-        <v>1.18641574622007</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V47">
-        <v>1.10756961625917</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W47">
-        <v>1.05295683044919</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X47">
-        <v>1.053958022313495</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y47">
-        <v>1.051702970940639</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z47">
-        <v>1.2</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA47">
         <v>1.712723949918967</v>
@@ -7212,46 +6879,34 @@
       <c r="AZ47">
         <v>1.712723949918967</v>
       </c>
-      <c r="BA47">
-        <v>1.712723949918967</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>1.197038469673834</v>
-      </c>
-      <c r="R48">
-        <v>1.105221629423249</v>
-      </c>
-      <c r="S48">
-        <v>1.076949724813599</v>
-      </c>
       <c r="T48">
-        <v>1.082369109408222</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U48">
-        <v>1.18641574622007</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V48">
-        <v>1.107780377252027</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W48">
-        <v>1.052789572872655</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X48">
-        <v>1.053374636366456</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y48">
-        <v>1.052193530242846</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z48">
-        <v>1.1</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA48">
-        <v>1.217970332073918</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB48">
         <v>-0.9</v>
@@ -7328,46 +6983,37 @@
       <c r="AZ48">
         <v>-0.9</v>
       </c>
-      <c r="BA48">
-        <v>-0.9</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>1.105221629423249</v>
-      </c>
-      <c r="S49">
-        <v>1.076949724813599</v>
-      </c>
       <c r="T49">
-        <v>1.082369109408222</v>
+        <v>1.026698613550477</v>
       </c>
       <c r="U49">
-        <v>1.18641574622007</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V49">
-        <v>1.107804063256367</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W49">
-        <v>1.052918714610513</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X49">
-        <v>1.053504899597684</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y49">
-        <v>0.9523215224617587</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA49">
-        <v>0.9539546870911408</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB49">
-        <v>1.1</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC49">
         <v>0.914789154762218</v>
@@ -7441,49 +7087,37 @@
       <c r="AZ49">
         <v>0.914789154762218</v>
       </c>
-      <c r="BA49">
-        <v>0.914789154762218</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>1.105221629423249</v>
-      </c>
-      <c r="S50">
-        <v>1.076949724813599</v>
-      </c>
-      <c r="T50">
-        <v>1.082369109408222</v>
-      </c>
       <c r="U50">
-        <v>1.18641574622007</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V50">
-        <v>1.107827729205653</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W50">
-        <v>1.053048104480638</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X50">
-        <v>1.053635411603267</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y50">
-        <v>0.9524498891484257</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA50">
-        <v>0.9540861856332867</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC50">
-        <v>1.037652944873486</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD50">
         <v>1.152379855430368</v>
@@ -7554,52 +7188,40 @@
       <c r="AZ50">
         <v>1.152379855430368</v>
       </c>
-      <c r="BA50">
-        <v>1.152379855430368</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>1.105221629423249</v>
-      </c>
-      <c r="S51">
-        <v>1.076949724813599</v>
-      </c>
-      <c r="T51">
-        <v>1.082369109408222</v>
-      </c>
       <c r="U51">
-        <v>1.18641574622007</v>
+        <v>1.204032327601237</v>
       </c>
       <c r="V51">
-        <v>1.243138031495873</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W51">
-        <v>1.179398960822151</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X51">
-        <v>1.097359808446343</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y51">
-        <v>0.7527802951347269</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA51">
-        <v>0.7548580787523491</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC51">
-        <v>0.7945284793702285</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD51">
-        <v>0.7929707194258953</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE51">
         <v>-1.558195694240041</v>
@@ -7667,55 +7289,40 @@
       <c r="AZ51">
         <v>-1.558195694240041</v>
       </c>
-      <c r="BA51">
-        <v>-1.558195694240041</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>1.105221629423249</v>
-      </c>
-      <c r="S52">
-        <v>1.076949724813599</v>
-      </c>
-      <c r="T52">
-        <v>1.082369109408222</v>
-      </c>
-      <c r="U52">
-        <v>1.18641574622007</v>
-      </c>
       <c r="V52">
-        <v>1.243138031495873</v>
+        <v>1.218626163399111</v>
       </c>
       <c r="W52">
-        <v>1.179398960822151</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X52">
-        <v>1.097359808446343</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y52">
-        <v>0.7527891525800641</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA52">
-        <v>0.754627034525825</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC52">
-        <v>0.7947449555943251</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD52">
-        <v>0.7939475122891366</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE52">
-        <v>-2.361846178489927</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF52">
         <v>-24.4</v>
@@ -7780,52 +7387,40 @@
       <c r="AZ52">
         <v>-24.4</v>
       </c>
-      <c r="BA52">
-        <v>-24.4</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>1.082369109408222</v>
-      </c>
-      <c r="U53">
-        <v>1.18641574622007</v>
-      </c>
-      <c r="V53">
-        <v>1.243138031495873</v>
-      </c>
       <c r="W53">
-        <v>1.179398960822151</v>
+        <v>1.21970934959548</v>
       </c>
       <c r="X53">
-        <v>1.097359808446343</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y53">
-        <v>0.7529186780379291</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA53">
-        <v>0.754760070574406</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB53">
-        <v>0.8</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC53">
-        <v>0.7951258868740041</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD53">
-        <v>0.7943259836361136</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE53">
-        <v>2.976434131487267</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF53">
-        <v>13.1</v>
+        <v>12.42550598425463</v>
       </c>
       <c r="AG53">
         <v>12.42550598425463</v>
@@ -7887,55 +7482,40 @@
       <c r="AZ53">
         <v>12.42550598425463</v>
       </c>
-      <c r="BA53">
-        <v>12.42550598425463</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>1.082369109408222</v>
-      </c>
-      <c r="U54">
-        <v>1.18641574622007</v>
-      </c>
-      <c r="V54">
-        <v>1.243138031495873</v>
-      </c>
-      <c r="W54">
-        <v>1.179398960822151</v>
-      </c>
       <c r="X54">
-        <v>1.097359808446343</v>
+        <v>1.209842462897605</v>
       </c>
       <c r="Y54">
-        <v>0.7530484531064161</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA54">
-        <v>0.7548933581315964</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB54">
-        <v>0.8</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC54">
-        <v>0.7955079887737071</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD54">
-        <v>0.7947056240599437</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE54">
-        <v>1.615011446782404</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF54">
-        <v>10.4</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG54">
-        <v>5.637799230555117</v>
+        <v>2.813188392915293</v>
       </c>
       <c r="AH54">
         <v>2.813188392915293</v>
@@ -7994,58 +7574,40 @@
       <c r="AZ54">
         <v>2.813188392915293</v>
       </c>
-      <c r="BA54">
-        <v>2.813188392915293</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>1.082369109408222</v>
-      </c>
-      <c r="U55">
-        <v>1.18641574622007</v>
-      </c>
-      <c r="V55">
-        <v>1.243138031495873</v>
-      </c>
-      <c r="W55">
-        <v>1.179398960822151</v>
-      </c>
-      <c r="X55">
-        <v>1.097359808446343</v>
-      </c>
       <c r="Y55">
-        <v>0.9784041465882354</v>
+        <v>1.221142260269998</v>
       </c>
       <c r="Z55">
-        <v>0.9581065482681692</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA55">
-        <v>0.9938939179383179</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB55">
-        <v>0.8193789432600658</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC55">
-        <v>0.7565966228197709</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD55">
-        <v>0.7574996084172625</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE55">
-        <v>0.8792789900156777</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF55">
-        <v>4.6</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG55">
-        <v>3.481061364172362</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH55">
-        <v>0.06434265219293422</v>
+        <v>1.806909003397877</v>
       </c>
       <c r="AI55">
         <v>1.806909003397877</v>
@@ -8101,61 +7663,40 @@
       <c r="AZ55">
         <v>1.806909003397877</v>
       </c>
-      <c r="BA55">
-        <v>1.806909003397877</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>1.082369109408222</v>
-      </c>
-      <c r="U56">
-        <v>1.18641574622007</v>
-      </c>
-      <c r="V56">
-        <v>1.243138031495873</v>
-      </c>
-      <c r="W56">
-        <v>1.179398960822151</v>
-      </c>
-      <c r="X56">
-        <v>1.097359808446343</v>
-      </c>
-      <c r="Y56">
-        <v>0.9784041465882354</v>
-      </c>
       <c r="Z56">
-        <v>0.9581065482681692</v>
+        <v>1.196174585285877</v>
       </c>
       <c r="AA56">
-        <v>0.9938939179383179</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB56">
-        <v>0.8193789432600658</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC56">
-        <v>0.7564229012773325</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD56">
-        <v>0.756299051043797</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE56">
-        <v>0.757406492870814</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF56">
-        <v>1.8</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG56">
-        <v>2.181562502275725</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH56">
-        <v>2.673650520541742</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI56">
-        <v>1.588601527331178</v>
+        <v>1.087285196410733</v>
       </c>
       <c r="AJ56">
         <v>1.087285196410733</v>
@@ -8208,58 +7749,40 @@
       <c r="AZ56">
         <v>1.087285196410733</v>
       </c>
-      <c r="BA56">
-        <v>1.087285196410733</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>1.243138031495873</v>
-      </c>
-      <c r="W57">
-        <v>1.179398960822151</v>
-      </c>
-      <c r="X57">
-        <v>1.097359808446343</v>
-      </c>
-      <c r="Y57">
-        <v>0.9784041465882354</v>
-      </c>
-      <c r="Z57">
-        <v>0.9581065482681692</v>
-      </c>
       <c r="AA57">
-        <v>0.9938939179383179</v>
+        <v>1.249069457917799</v>
       </c>
       <c r="AB57">
-        <v>0.8193789432600658</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC57">
-        <v>0.7568914248753629</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD57">
-        <v>0.7567671606336148</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE57">
-        <v>0.7578782935852644</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF57">
-        <v>0.8</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG57">
-        <v>1.683016752498574</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH57">
-        <v>2.962853997504993</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI57">
-        <v>2.453232171470802</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ57">
-        <v>2.613079633443661</v>
+        <v>1.450779288666709</v>
       </c>
       <c r="AK57">
         <v>1.450779288666709</v>
@@ -8309,61 +7832,40 @@
       <c r="AZ57">
         <v>1.450779288666709</v>
       </c>
-      <c r="BA57">
-        <v>1.450779288666709</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>1.243138031495873</v>
-      </c>
-      <c r="W58">
-        <v>1.179398960822151</v>
-      </c>
-      <c r="X58">
-        <v>1.097359808446343</v>
-      </c>
-      <c r="Y58">
-        <v>0.9784041465882354</v>
-      </c>
-      <c r="Z58">
-        <v>0.9581065482681692</v>
-      </c>
-      <c r="AA58">
-        <v>0.9938939179383179</v>
-      </c>
       <c r="AB58">
-        <v>0.8193789432600658</v>
+        <v>1.057569490512405</v>
       </c>
       <c r="AC58">
-        <v>0.7573615118967183</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD58">
-        <v>0.7572368334217714</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE58">
-        <v>0.7583516594009438</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF58">
-        <v>0.8</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG58">
-        <v>1.221384664580924</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH58">
-        <v>1.895920781612887</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI58">
-        <v>1.798761652061742</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ58">
-        <v>1.88650163443657</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK58">
-        <v>2.046307381810891</v>
+        <v>0.368631518524424</v>
       </c>
       <c r="AL58">
         <v>0.368631518524424</v>
@@ -8410,64 +7912,40 @@
       <c r="AZ58">
         <v>0.368631518524424</v>
       </c>
-      <c r="BA58">
-        <v>0.368631518524424</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>1.243138031495873</v>
-      </c>
-      <c r="W59">
-        <v>1.179398960822151</v>
-      </c>
-      <c r="X59">
-        <v>1.097359808446343</v>
-      </c>
-      <c r="Y59">
-        <v>0.9784041465882354</v>
-      </c>
-      <c r="Z59">
-        <v>0.9581065482681692</v>
-      </c>
-      <c r="AA59">
-        <v>0.9938939179383179</v>
-      </c>
-      <c r="AB59">
-        <v>0.8193789432600658</v>
-      </c>
       <c r="AC59">
-        <v>0.8159621871117153</v>
+        <v>1.029925508741425</v>
       </c>
       <c r="AD59">
-        <v>0.8270921503120121</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE59">
-        <v>0.5891488151604989</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF59">
-        <v>0.7608973315952545</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG59">
-        <v>0.8690066415474718</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH59">
-        <v>1.246134092754559</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI59">
-        <v>1.239802792266346</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ59">
-        <v>1.263112978269902</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK59">
-        <v>2.06222331282595</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL59">
-        <v>0.825619154467347</v>
+        <v>-2.021680416268424</v>
       </c>
       <c r="AM59">
         <v>-2.021680416268424</v>
@@ -8511,67 +7989,40 @@
       <c r="AZ59">
         <v>-2.021680416268424</v>
       </c>
-      <c r="BA59">
-        <v>-2.021680416268424</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>1.243138031495873</v>
-      </c>
-      <c r="W60">
-        <v>1.179398960822151</v>
-      </c>
-      <c r="X60">
-        <v>1.097359808446343</v>
-      </c>
-      <c r="Y60">
-        <v>0.9784041465882354</v>
-      </c>
-      <c r="Z60">
-        <v>0.9581065482681692</v>
-      </c>
-      <c r="AA60">
-        <v>0.9938939179383179</v>
-      </c>
-      <c r="AB60">
-        <v>0.8193789432600658</v>
-      </c>
-      <c r="AC60">
-        <v>0.8159621871117153</v>
-      </c>
       <c r="AD60">
-        <v>0.8270921503120121</v>
+        <v>0.9614647689290793</v>
       </c>
       <c r="AE60">
-        <v>0.5891488151604989</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF60">
-        <v>0.7608973315952545</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG60">
-        <v>0.8112840917198412</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH60">
-        <v>0.9898311076226918</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI60">
-        <v>0.9878875275857837</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ60">
-        <v>0.9898774586767303</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK60">
-        <v>1.580695749878686</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL60">
-        <v>3.597445468425548</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM60">
-        <v>1.519179420520402</v>
+        <v>1.118165634023697</v>
       </c>
       <c r="AN60">
         <v>1.118165634023697</v>
@@ -8612,61 +8063,40 @@
       <c r="AZ60">
         <v>1.118165634023697</v>
       </c>
-      <c r="BA60">
-        <v>1.118165634023697</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.9784041465882354</v>
-      </c>
-      <c r="Z61">
-        <v>0.9581065482681692</v>
-      </c>
-      <c r="AA61">
-        <v>0.9938939179383179</v>
-      </c>
-      <c r="AB61">
-        <v>0.8193789432600658</v>
-      </c>
-      <c r="AC61">
-        <v>0.8159621871117153</v>
-      </c>
-      <c r="AD61">
-        <v>0.8270921503120121</v>
-      </c>
       <c r="AE61">
-        <v>0.5891488151604989</v>
+        <v>0.6721618218386144</v>
       </c>
       <c r="AF61">
-        <v>0.7608973315952545</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG61">
-        <v>0.7550732564476732</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH61">
-        <v>0.811761109884543</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI61">
-        <v>0.8666961335262755</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ61">
-        <v>0.8691694120189766</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK61">
-        <v>0.8946668611231843</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL61">
-        <v>2.758694470720428</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM61">
-        <v>2.159388129438057</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN61">
-        <v>2.001102481077055</v>
+        <v>0.1289585187160185</v>
       </c>
       <c r="AO61">
         <v>0.1289585187160185</v>
@@ -8704,64 +8134,40 @@
       <c r="AZ61">
         <v>0.1289585187160185</v>
       </c>
-      <c r="BA61">
-        <v>0.1289585187160185</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.9784041465882354</v>
-      </c>
-      <c r="Z62">
-        <v>0.9581065482681692</v>
-      </c>
-      <c r="AA62">
-        <v>0.9938939179383179</v>
-      </c>
-      <c r="AB62">
-        <v>0.8193789432600658</v>
-      </c>
-      <c r="AC62">
-        <v>0.8159621871117153</v>
-      </c>
-      <c r="AD62">
-        <v>0.8270921503120121</v>
-      </c>
-      <c r="AE62">
-        <v>0.5891488151604989</v>
-      </c>
       <c r="AF62">
-        <v>0.7608973315952545</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG62">
-        <v>0.7555372519599075</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH62">
-        <v>0.8121144935678188</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI62">
-        <v>0.810841343452779</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ62">
-        <v>0.8123706522064253</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK62">
-        <v>0.8470232082019749</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL62">
-        <v>1.999999999999986</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM62">
-        <v>1.250741812913873</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO62">
-        <v>1.103467709678512</v>
+        <v>-0.4259770459179748</v>
       </c>
       <c r="AP62">
         <v>-0.4259770459179748</v>
@@ -8796,67 +8202,43 @@
       <c r="AZ62">
         <v>-0.4259770459179748</v>
       </c>
-      <c r="BA62">
-        <v>-0.4259770459179748</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.9784041465882354</v>
-      </c>
-      <c r="Z63">
-        <v>0.9581065482681692</v>
-      </c>
-      <c r="AA63">
-        <v>0.9938939179383179</v>
-      </c>
-      <c r="AB63">
-        <v>0.8193789432600658</v>
-      </c>
-      <c r="AC63">
-        <v>0.8159621871117153</v>
-      </c>
-      <c r="AD63">
-        <v>0.8270921503120121</v>
-      </c>
-      <c r="AE63">
-        <v>0.5891488151604989</v>
-      </c>
       <c r="AF63">
-        <v>0.7608973315952545</v>
+        <v>-0.8178451510448019</v>
       </c>
       <c r="AG63">
-        <v>2.982123174001222</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH63">
-        <v>2.669530313285209</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI63">
-        <v>2.679142652826271</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ63">
-        <v>2.65670003460308</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK63">
-        <v>0.8460994700169095</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL63">
-        <v>1.290118597401687</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM63">
-        <v>1.015183912492461</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN63">
-        <v>1.42259993923426</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO63">
-        <v>0.2741565900296763</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP63">
-        <v>0.6052917263434097</v>
+        <v>-0.6379881427730965</v>
       </c>
       <c r="AQ63">
         <v>-0.6379881427730965</v>
@@ -8888,70 +8270,43 @@
       <c r="AZ63">
         <v>-0.6379881427730965</v>
       </c>
-      <c r="BA63">
-        <v>-0.6379881427730965</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.9784041465882354</v>
-      </c>
-      <c r="Z64">
-        <v>0.9581065482681692</v>
-      </c>
-      <c r="AA64">
-        <v>0.9938939179383179</v>
-      </c>
-      <c r="AB64">
-        <v>0.8193789432600658</v>
-      </c>
-      <c r="AC64">
-        <v>0.8159621871117153</v>
-      </c>
-      <c r="AD64">
-        <v>0.8270921503120121</v>
-      </c>
-      <c r="AE64">
-        <v>0.5891488151604989</v>
-      </c>
-      <c r="AF64">
-        <v>0.7608973315952545</v>
-      </c>
       <c r="AG64">
-        <v>2.982123174001222</v>
+        <v>-0.5758542874276872</v>
       </c>
       <c r="AH64">
-        <v>2.669530313285209</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI64">
-        <v>2.679142652826271</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ64">
-        <v>2.65670003460308</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK64">
-        <v>0.8472120198269977</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL64">
-        <v>0.8457693219322948</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM64">
-        <v>0.8514252841831365</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN64">
-        <v>1.04995654318823</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO64">
-        <v>0.3900306755021603</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP64">
-        <v>1.09000539282718</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ64">
-        <v>0.9813417064542591</v>
+        <v>-0.04993664583679447</v>
       </c>
       <c r="AR64">
         <v>-0.04993664583679447</v>
@@ -8980,61 +8335,43 @@
       <c r="AZ64">
         <v>-0.04993664583679447</v>
       </c>
-      <c r="BA64">
-        <v>-0.04993664583679447</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.8159621871117153</v>
-      </c>
-      <c r="AD65">
-        <v>0.8270921503120121</v>
-      </c>
-      <c r="AE65">
-        <v>0.5891488151604989</v>
-      </c>
-      <c r="AF65">
-        <v>0.7608973315952545</v>
-      </c>
-      <c r="AG65">
-        <v>2.982123174001222</v>
-      </c>
       <c r="AH65">
-        <v>2.669530313285209</v>
+        <v>-0.5332699353560686</v>
       </c>
       <c r="AI65">
-        <v>2.679142652826271</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ65">
-        <v>2.65670003460308</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK65">
-        <v>0.8476002886976204</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL65">
-        <v>0.8461532041536657</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM65">
-        <v>0.8518261268455376</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN65">
-        <v>0.85011087922922</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO65">
-        <v>1.77047133227353</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP65">
-        <v>1.170028044289253</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ65">
-        <v>1.411430480870337</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR65">
-        <v>0.7228890830222241</v>
+        <v>0.3662234592800075</v>
       </c>
       <c r="AS65">
         <v>0.3662234592800075</v>
@@ -9060,64 +8397,43 @@
       <c r="AZ65">
         <v>0.3662234592800075</v>
       </c>
-      <c r="BA65">
-        <v>0.3662234592800075</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.8159621871117153</v>
-      </c>
-      <c r="AD66">
-        <v>0.8270921503120121</v>
-      </c>
-      <c r="AE66">
-        <v>0.5891488151604989</v>
-      </c>
-      <c r="AF66">
-        <v>0.7608973315952545</v>
-      </c>
-      <c r="AG66">
-        <v>2.982123174001222</v>
-      </c>
-      <c r="AH66">
-        <v>2.669530313285209</v>
-      </c>
       <c r="AI66">
-        <v>2.679142652826271</v>
+        <v>-0.4945414157149955</v>
       </c>
       <c r="AJ66">
-        <v>2.65670003460308</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK66">
-        <v>0.8479897310629241</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL66">
-        <v>0.8465382576453067</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM66">
-        <v>0.8522281473628937</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN66">
-        <v>0.8505078371614019</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO66">
-        <v>1.271038976863451</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP66">
-        <v>1.009978799001772</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ66">
-        <v>1.250970079311699</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR66">
-        <v>1.229421467958474</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS66">
-        <v>0.5789697687887099</v>
+        <v>-1.023919595764212</v>
       </c>
       <c r="AT66">
         <v>-1.023919595764212</v>
@@ -9140,67 +8456,43 @@
       <c r="AZ66">
         <v>-1.023919595764212</v>
       </c>
-      <c r="BA66">
-        <v>-1.023919595764212</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.8159621871117153</v>
-      </c>
-      <c r="AD67">
-        <v>0.8270921503120121</v>
-      </c>
-      <c r="AE67">
-        <v>0.5891488151604989</v>
-      </c>
-      <c r="AF67">
-        <v>0.7608973315952545</v>
-      </c>
-      <c r="AG67">
-        <v>2.982123174001222</v>
-      </c>
-      <c r="AH67">
-        <v>2.669530313285209</v>
-      </c>
-      <c r="AI67">
-        <v>2.679142652826271</v>
-      </c>
       <c r="AJ67">
-        <v>2.65670003460308</v>
+        <v>-0.5207358818402212</v>
       </c>
       <c r="AK67">
-        <v>1.227059731211185</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL67">
-        <v>1.48297492819374</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM67">
-        <v>0.8297703224679071</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN67">
-        <v>0.9090173704836573</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO67">
-        <v>1.096968169662631</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP67">
-        <v>0.7712098268207512</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ67">
-        <v>1.008537156254192</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR67">
-        <v>1.570315680219196</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS67">
-        <v>0.7461065351979386</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT67">
-        <v>1.163667258715932</v>
+        <v>-0.2547854660834332</v>
       </c>
       <c r="AU67">
         <v>-0.2547854660834332</v>
@@ -9220,70 +8512,43 @@
       <c r="AZ67">
         <v>-0.2547854660834332</v>
       </c>
-      <c r="BA67">
-        <v>-0.2547854660834332</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.8159621871117153</v>
-      </c>
-      <c r="AD68">
-        <v>0.8270921503120121</v>
-      </c>
-      <c r="AE68">
-        <v>0.5891488151604989</v>
-      </c>
-      <c r="AF68">
-        <v>0.7608973315952545</v>
-      </c>
-      <c r="AG68">
-        <v>2.982123174001222</v>
-      </c>
-      <c r="AH68">
-        <v>2.669530313285209</v>
-      </c>
-      <c r="AI68">
-        <v>2.679142652826271</v>
-      </c>
-      <c r="AJ68">
-        <v>2.65670003460308</v>
-      </c>
       <c r="AK68">
-        <v>1.227059731211185</v>
+        <v>-0.3938727299877787</v>
       </c>
       <c r="AL68">
-        <v>1.48297492819374</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM68">
-        <v>0.8297703224679071</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN68">
-        <v>0.9090173704836573</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO68">
-        <v>0.6469136025130808</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP68">
-        <v>0.6516585191350828</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ68">
-        <v>0.8495220873143694</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR68">
-        <v>1.310709105758562</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS68">
-        <v>1.000000000000043</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT68">
-        <v>1.238079244374205</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU68">
-        <v>0.4778196230286795</v>
+        <v>1.565950786385088</v>
       </c>
       <c r="AV68">
         <v>1.565950786385088</v>
@@ -9300,61 +8565,43 @@
       <c r="AZ68">
         <v>1.565950786385088</v>
       </c>
-      <c r="BA68">
-        <v>1.565950786385088</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>2.982123174001222</v>
-      </c>
-      <c r="AH69">
-        <v>2.669530313285209</v>
-      </c>
-      <c r="AI69">
-        <v>2.679142652826271</v>
-      </c>
-      <c r="AJ69">
-        <v>2.65670003460308</v>
-      </c>
-      <c r="AK69">
-        <v>1.227059731211185</v>
-      </c>
       <c r="AL69">
-        <v>1.48297492819374</v>
+        <v>-0.6875196870908431</v>
       </c>
       <c r="AM69">
-        <v>0.8297703224679071</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN69">
-        <v>0.9090173704836573</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO69">
-        <v>0.6473017371662735</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP69">
-        <v>0.6520608453922847</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ69">
-        <v>0.6492410637064978</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR69">
-        <v>1.069614283561933</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS69">
-        <v>0.9506783003253787</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT69">
-        <v>1.030887569010019</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU69">
-        <v>1.031485424476813</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV69">
-        <v>1.366216841142815</v>
+        <v>-0.2475555093771362</v>
       </c>
       <c r="AW69">
         <v>-0.2475555093771362</v>
@@ -9368,64 +8615,43 @@
       <c r="AZ69">
         <v>-0.2475555093771362</v>
       </c>
-      <c r="BA69">
-        <v>-0.2475555093771362</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>2.982123174001222</v>
-      </c>
-      <c r="AH70">
-        <v>2.669530313285209</v>
-      </c>
-      <c r="AI70">
-        <v>2.679142652826271</v>
-      </c>
-      <c r="AJ70">
-        <v>2.65670003460308</v>
-      </c>
-      <c r="AK70">
-        <v>1.227059731211185</v>
-      </c>
-      <c r="AL70">
-        <v>1.48297492819374</v>
-      </c>
       <c r="AM70">
-        <v>0.8297703224679071</v>
+        <v>-0.69094110923151</v>
       </c>
       <c r="AN70">
-        <v>0.9090173704836573</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO70">
-        <v>0.6476910495457417</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP70">
-        <v>0.6524643543338584</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ70">
-        <v>0.6496362156490818</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR70">
-        <v>0.9088896513462998</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS70">
-        <v>0.9109340342935042</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT70">
-        <v>0.9912319793882176</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU70">
-        <v>0.9920298111023556</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV70">
-        <v>1.388749110572178</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW70">
-        <v>0.4837136438943048</v>
+        <v>0.386705041387188</v>
       </c>
       <c r="AX70">
         <v>0.386705041387188</v>
@@ -9436,67 +8662,43 @@
       <c r="AZ70">
         <v>0.386705041387188</v>
       </c>
-      <c r="BA70">
-        <v>0.386705041387188</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>2.982123174001222</v>
-      </c>
-      <c r="AH71">
-        <v>2.669530313285209</v>
-      </c>
-      <c r="AI71">
-        <v>2.679142652826271</v>
-      </c>
-      <c r="AJ71">
-        <v>2.65670003460308</v>
-      </c>
-      <c r="AK71">
-        <v>1.227059731211185</v>
-      </c>
-      <c r="AL71">
-        <v>1.48297492819374</v>
-      </c>
-      <c r="AM71">
-        <v>0.8297703224679071</v>
-      </c>
       <c r="AN71">
-        <v>0.9090173704836573</v>
+        <v>-0.5222256879359042</v>
       </c>
       <c r="AO71">
-        <v>0.7976998361951074</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP71">
-        <v>0.6305678980941636</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ71">
-        <v>0.5865672119585383</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR71">
-        <v>0.5826895956054841</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS71">
-        <v>0.7627636790512184</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT71">
-        <v>0.8417464084844397</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU71">
-        <v>0.8450224808734816</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV71">
-        <v>0.7494877930503776</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW71">
-        <v>0.4608013055509304</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX71">
-        <v>0.3412443502074325</v>
+        <v>-0.6950112442994083</v>
       </c>
       <c r="AY71">
         <v>-0.6950112442994083</v>
@@ -9504,716 +8706,299 @@
       <c r="AZ71">
         <v>-0.6950112442994083</v>
       </c>
-      <c r="BA71">
-        <v>-0.6950112442994083</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>2.982123174001222</v>
-      </c>
-      <c r="AH72">
-        <v>2.669530313285209</v>
-      </c>
-      <c r="AI72">
-        <v>2.679142652826271</v>
-      </c>
-      <c r="AJ72">
-        <v>2.65670003460308</v>
-      </c>
-      <c r="AK72">
-        <v>1.227059731211185</v>
-      </c>
-      <c r="AL72">
-        <v>1.48297492819374</v>
-      </c>
-      <c r="AM72">
-        <v>0.8297703224679071</v>
-      </c>
-      <c r="AN72">
-        <v>0.9090173704836573</v>
-      </c>
       <c r="AO72">
-        <v>0.7976998361951074</v>
+        <v>1.875176607472298</v>
       </c>
       <c r="AP72">
-        <v>0.6305678980941636</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ72">
-        <v>0.5865672119585383</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR72">
-        <v>0.5826895956054841</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS72">
-        <v>0.76226945697681</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT72">
-        <v>0.8418459320397034</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU72">
-        <v>0.8435404921775671</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV72">
-        <v>0.2828038154446944</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW72">
-        <v>0.5085687701863719</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX72">
-        <v>0.3936156527045114</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY72">
-        <v>-0.03810692497674495</v>
+        <v>-0.3135696110003181</v>
       </c>
       <c r="AZ72">
         <v>-0.3135696110003181</v>
       </c>
-      <c r="BA72">
-        <v>-0.3135696110003181</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>1.227059731211185</v>
-      </c>
-      <c r="AL73">
-        <v>1.48297492819374</v>
-      </c>
-      <c r="AM73">
-        <v>0.8297703224679071</v>
-      </c>
-      <c r="AN73">
-        <v>0.9090173704836573</v>
-      </c>
-      <c r="AO73">
-        <v>0.7976998361951074</v>
-      </c>
       <c r="AP73">
-        <v>0.6305678980941636</v>
+        <v>0.5688271947695256</v>
       </c>
       <c r="AQ73">
-        <v>0.5865672119585383</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR73">
-        <v>0.5826895956054841</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS73">
-        <v>0.7624163706171743</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT73">
-        <v>0.8419115605921945</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU73">
-        <v>0.8436080455770423</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV73">
-        <v>0.1389654801410956</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW73">
-        <v>0.5316371031389053</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX73">
-        <v>0.4313854517770039</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY73">
-        <v>-0.1759809108671533</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ73">
-        <v>-0.02815245833134838</v>
-      </c>
-      <c r="BA73">
         <v>-0.02110736963342674</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>1.227059731211185</v>
-      </c>
-      <c r="AL74">
-        <v>1.48297492819374</v>
-      </c>
-      <c r="AM74">
-        <v>0.8297703224679071</v>
-      </c>
-      <c r="AN74">
-        <v>0.9090173704836573</v>
-      </c>
-      <c r="AO74">
-        <v>0.7976998361951074</v>
-      </c>
-      <c r="AP74">
-        <v>0.6305678980941636</v>
-      </c>
       <c r="AQ74">
-        <v>0.5865672119585383</v>
+        <v>0.2825146908943169</v>
       </c>
       <c r="AR74">
-        <v>0.5826895956054841</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS74">
-        <v>0.7625635396549626</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT74">
-        <v>0.8419772647533534</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU74">
-        <v>0.8436756745285408</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV74">
-        <v>0.1397440425223948</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW74">
-        <v>0.5545297463714007</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX74">
-        <v>0.446775552486244</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY74">
-        <v>-0.1755138007415127</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ74">
-        <v>-0.003984653650306313</v>
-      </c>
-      <c r="BA74">
-        <v>-0.0002871190691706715</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>1.227059731211185</v>
-      </c>
-      <c r="AL75">
-        <v>1.48297492819374</v>
-      </c>
-      <c r="AM75">
-        <v>0.8297703224679071</v>
-      </c>
-      <c r="AN75">
-        <v>0.9090173704836573</v>
-      </c>
-      <c r="AO75">
-        <v>0.7976998361951074</v>
-      </c>
-      <c r="AP75">
-        <v>0.6305678980941636</v>
-      </c>
-      <c r="AQ75">
-        <v>0.5865672119585383</v>
-      </c>
       <c r="AR75">
-        <v>0.5826895956054841</v>
+        <v>0.1384461364825299</v>
       </c>
       <c r="AS75">
-        <v>0.7602925144185747</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT75">
-        <v>0.713365108087386</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU75">
-        <v>0.4964699949196841</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV75">
-        <v>0.4719436266691006</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW75">
-        <v>0.5723834558118739</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX75">
-        <v>0.3369988469073633</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY75">
-        <v>-0.1491707061428684</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ75">
-        <v>0.09793819521391356</v>
-      </c>
-      <c r="BA75">
-        <v>0.101051756130218</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>1.227059731211185</v>
-      </c>
-      <c r="AL76">
-        <v>1.48297492819374</v>
-      </c>
-      <c r="AM76">
-        <v>0.8297703224679071</v>
-      </c>
-      <c r="AN76">
-        <v>0.9090173704836573</v>
-      </c>
-      <c r="AO76">
-        <v>0.7976998361951074</v>
-      </c>
-      <c r="AP76">
-        <v>0.6305678980941636</v>
-      </c>
-      <c r="AQ76">
-        <v>0.5865672119585383</v>
-      </c>
-      <c r="AR76">
-        <v>0.5826895956054841</v>
-      </c>
       <c r="AS76">
-        <v>0.7602925144185747</v>
+        <v>-0.07267434273496458</v>
       </c>
       <c r="AT76">
-        <v>0.713365108087386</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU76">
-        <v>0.4964699949196841</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV76">
-        <v>0.4719436266691006</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW76">
-        <v>0.5000000000000142</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX76">
-        <v>0.3320622454261297</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY76">
-        <v>-0.07408824854879015</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ76">
-        <v>0.1203260072210526</v>
-      </c>
-      <c r="BA76">
-        <v>0.1261434453241748</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.7976998361951074</v>
-      </c>
-      <c r="AP77">
-        <v>0.6305678980941636</v>
-      </c>
-      <c r="AQ77">
-        <v>0.5865672119585383</v>
-      </c>
-      <c r="AR77">
-        <v>0.5826895956054841</v>
-      </c>
-      <c r="AS77">
-        <v>0.7602925144185747</v>
-      </c>
       <c r="AT77">
-        <v>0.713365108087386</v>
+        <v>-0.2432308182099788</v>
       </c>
       <c r="AU77">
-        <v>0.4964699949196841</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV77">
-        <v>0.4719436266691006</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW77">
-        <v>0.4233226569284341</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX77">
-        <v>0.3271128152376122</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY77">
-        <v>0.00110649739757207</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ77">
-        <v>0.1966258437859665</v>
-      </c>
-      <c r="BA77">
-        <v>0.2012915573803298</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.7976998361951074</v>
-      </c>
-      <c r="AP78">
-        <v>0.6305678980941636</v>
-      </c>
-      <c r="AQ78">
-        <v>0.5865672119585383</v>
-      </c>
-      <c r="AR78">
-        <v>0.5826895956054841</v>
-      </c>
-      <c r="AS78">
-        <v>0.7602925144185747</v>
-      </c>
-      <c r="AT78">
-        <v>0.713365108087386</v>
-      </c>
       <c r="AU78">
-        <v>0.4964699949196841</v>
+        <v>-0.1234988914239124</v>
       </c>
       <c r="AV78">
-        <v>0.4719436266691006</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW78">
-        <v>0.3700213942127988</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX78">
-        <v>0.3249233776517713</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY78">
-        <v>0.001408694805164146</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ78">
-        <v>0.1969184063705995</v>
-      </c>
-      <c r="BA78">
-        <v>0.2015935159966631</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.7976998361951074</v>
-      </c>
-      <c r="AP79">
-        <v>0.6305678980941636</v>
-      </c>
-      <c r="AQ79">
-        <v>0.5865672119585383</v>
-      </c>
-      <c r="AR79">
-        <v>0.5826895956054841</v>
-      </c>
-      <c r="AS79">
-        <v>0.7602925144185747</v>
-      </c>
-      <c r="AT79">
-        <v>0.713365108087386</v>
-      </c>
-      <c r="AU79">
-        <v>0.4964699949196841</v>
-      </c>
       <c r="AV79">
-        <v>0.4719436266691006</v>
+        <v>0.05391359926521637</v>
       </c>
       <c r="AW79">
-        <v>0.4157422566717898</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX79">
-        <v>0.307326782440812</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY79">
-        <v>-0.116620711136369</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ79">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA79">
-        <v>0.2062553876482696</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.7976998361951074</v>
-      </c>
-      <c r="AP80">
-        <v>0.6305678980941636</v>
-      </c>
-      <c r="AQ80">
-        <v>0.5865672119585383</v>
-      </c>
-      <c r="AR80">
-        <v>0.5826895956054841</v>
-      </c>
-      <c r="AS80">
-        <v>0.7602925144185747</v>
-      </c>
-      <c r="AT80">
-        <v>0.713365108087386</v>
-      </c>
-      <c r="AU80">
-        <v>0.4964699949196841</v>
-      </c>
-      <c r="AV80">
-        <v>0.4719436266691006</v>
-      </c>
       <c r="AW80">
-        <v>0.4157422566717898</v>
+        <v>-0.01923245999843453</v>
       </c>
       <c r="AX80">
-        <v>0.307326782440812</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY80">
-        <v>-0.116620711136369</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ80">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA80">
-        <v>0.2038040215726227</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.7602925144185747</v>
-      </c>
-      <c r="AT81">
-        <v>0.713365108087386</v>
-      </c>
-      <c r="AU81">
-        <v>0.4964699949196841</v>
-      </c>
-      <c r="AV81">
-        <v>0.4719436266691006</v>
-      </c>
-      <c r="AW81">
-        <v>0.4157422566717898</v>
-      </c>
       <c r="AX81">
-        <v>0.307326782440812</v>
+        <v>-0.1016294362999772</v>
       </c>
       <c r="AY81">
-        <v>-0.116620711136369</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ81">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA81">
-        <v>0.2041108595618084</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.7602925144185747</v>
-      </c>
-      <c r="AT82">
-        <v>0.713365108087386</v>
-      </c>
-      <c r="AU82">
-        <v>0.4964699949196841</v>
-      </c>
-      <c r="AV82">
-        <v>0.4719436266691006</v>
-      </c>
-      <c r="AW82">
-        <v>0.4157422566717898</v>
-      </c>
-      <c r="AX82">
-        <v>0.307326782440812</v>
-      </c>
       <c r="AY82">
-        <v>-0.116620711136369</v>
+        <v>-0.09038869280821153</v>
       </c>
       <c r="AZ82">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA82">
-        <v>0.2044182848009513</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.7602925144185747</v>
-      </c>
-      <c r="AT83">
-        <v>0.713365108087386</v>
-      </c>
-      <c r="AU83">
-        <v>0.4964699949196841</v>
-      </c>
-      <c r="AV83">
-        <v>0.4719436266691006</v>
-      </c>
-      <c r="AW83">
-        <v>0.4157422566717898</v>
-      </c>
-      <c r="AX83">
-        <v>0.307326782440812</v>
-      </c>
-      <c r="AY83">
-        <v>-0.116620711136369</v>
-      </c>
       <c r="AZ83">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA83">
-        <v>0.142727433971244</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.7602925144185747</v>
-      </c>
-      <c r="AT84">
-        <v>0.713365108087386</v>
-      </c>
-      <c r="AU84">
-        <v>0.4964699949196841</v>
-      </c>
-      <c r="AV84">
-        <v>0.4719436266691006</v>
-      </c>
-      <c r="AW84">
-        <v>0.4157422566717898</v>
-      </c>
-      <c r="AX84">
-        <v>0.307326782440812</v>
-      </c>
-      <c r="AY84">
-        <v>-0.116620711136369</v>
-      </c>
-      <c r="AZ84">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA84">
-        <v>0.142727433971244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.4157422566717898</v>
-      </c>
-      <c r="AX85">
-        <v>0.307326782440812</v>
-      </c>
-      <c r="AY85">
-        <v>-0.116620711136369</v>
-      </c>
-      <c r="AZ85">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA85">
-        <v>0.142727433971244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.4157422566717898</v>
-      </c>
-      <c r="AX86">
-        <v>0.307326782440812</v>
-      </c>
-      <c r="AY86">
-        <v>-0.116620711136369</v>
-      </c>
-      <c r="AZ86">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA86">
-        <v>0.142727433971244</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.4157422566717898</v>
-      </c>
-      <c r="AX87">
-        <v>0.307326782440812</v>
-      </c>
-      <c r="AY87">
-        <v>-0.116620711136369</v>
-      </c>
-      <c r="AZ87">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA87">
-        <v>0.142727433971244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.4157422566717898</v>
-      </c>
-      <c r="AX88">
-        <v>0.307326782440812</v>
-      </c>
-      <c r="AY88">
-        <v>-0.116620711136369</v>
-      </c>
-      <c r="AZ88">
-        <v>-0.02897599826797972</v>
-      </c>
-      <c r="BA88">
-        <v>0.142727433971244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.142727433971244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.142727433971244</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.142727433971244</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.142727433971244</v>
+        <v>-0.02870061549424456</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9224,7 +9224,7 @@
         <v>0.0432377204005812</v>
       </c>
       <c r="AG64">
-        <v>12.42550598425463</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH64">
         <v>18.14253003720006</v>
@@ -9316,10 +9316,10 @@
         <v>0.0432377204005812</v>
       </c>
       <c r="AG65">
-        <v>-0.9933264229043273</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH65">
-        <v>2.813188392915293</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI65">
         <v>4.544557841334466</v>
@@ -9405,13 +9405,13 @@
         <v>0.0432377204005812</v>
       </c>
       <c r="AG66">
-        <v>-0.9933264229043273</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH66">
-        <v>-0.2181245806736233</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI66">
-        <v>1.806909003397877</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ66">
         <v>1.849039957006937</v>
@@ -9491,16 +9491,16 @@
         <v>0.0432377204005812</v>
       </c>
       <c r="AG67">
-        <v>-0.9933264229043273</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH67">
-        <v>-0.2181245806736233</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI67">
-        <v>0.1781713082770353</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ67">
-        <v>1.087285196410733</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK67">
         <v>0.5397909189180297</v>
@@ -9574,19 +9574,19 @@
         <v>0.0432377204005812</v>
       </c>
       <c r="AG68">
-        <v>-0.9933264229043273</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH68">
-        <v>-0.2181245806736233</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI68">
-        <v>0.1781713082770353</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ68">
-        <v>0.2562636581710709</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK68">
-        <v>1.450779288666709</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL68">
         <v>-0.9815688985294599</v>
@@ -9654,22 +9654,22 @@
         <v>0.0432377204005812</v>
       </c>
       <c r="AG69">
-        <v>-0.9933264229043273</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH69">
-        <v>-0.2181245806736233</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI69">
-        <v>0.1781713082770353</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ69">
-        <v>0.2562636581710709</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK69">
-        <v>0.1351793167645005</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL69">
-        <v>0.368631518524424</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM69">
         <v>4.784172743600905</v>
@@ -9731,25 +9731,25 @@
         <v>0.0432377204005812</v>
       </c>
       <c r="AG70">
-        <v>-0.9933264229043273</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH70">
-        <v>-0.2181245806736233</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI70">
-        <v>0.1781713082770353</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ70">
-        <v>0.2562636581710709</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK70">
-        <v>0.1351793167645005</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL70">
-        <v>0.06501352391564978</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM70">
-        <v>-2.021680416268424</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN70">
         <v>-2.12351799362105</v>
@@ -9805,28 +9805,28 @@
         <v>0.0432377204005812</v>
       </c>
       <c r="AG71">
-        <v>-0.9933264229043273</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH71">
-        <v>-0.2181245806736233</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI71">
-        <v>0.1781713082770353</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ71">
-        <v>0.2562636581710709</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK71">
-        <v>0.1351793167645005</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL71">
-        <v>0.06501352391564978</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM71">
-        <v>0.377308172412735</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN71">
-        <v>1.118165634023697</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO71">
         <v>0.2867860097325945</v>
@@ -9876,31 +9876,31 @@
         <v>0.0432377204005812</v>
       </c>
       <c r="AG72">
-        <v>-0.9933264229043273</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH72">
-        <v>-0.2181245806736233</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI72">
-        <v>0.1781713082770353</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ72">
-        <v>0.2562636581710709</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK72">
-        <v>0.1351793167645005</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL72">
-        <v>0.06501352391564978</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM72">
-        <v>0.377308172412735</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN72">
-        <v>0.4206989560457092</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO72">
-        <v>0.1289585187160185</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP72">
         <v>1.982042055103904</v>
@@ -9944,34 +9944,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>-0.9933264229043273</v>
+        <v>-2.268310010181241</v>
       </c>
       <c r="AH73">
-        <v>-0.2181245806736233</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI73">
-        <v>0.1781713082770353</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ73">
-        <v>0.2562636581710709</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK73">
-        <v>0.1351793167645005</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL73">
-        <v>0.06501352391564978</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM73">
-        <v>0.377308172412735</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN73">
-        <v>0.4206989560457092</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO73">
-        <v>0.8217065290003976</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP73">
-        <v>-0.4259770459179748</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ73">
         <v>-0.9572753870817365</v>
@@ -10011,38 +10011,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>-0.9933264229043273</v>
-      </c>
       <c r="AH74">
-        <v>-0.2181245806736233</v>
+        <v>-0.4357200013696204</v>
       </c>
       <c r="AI74">
-        <v>0.1781713082770353</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ74">
-        <v>0.2562636581710709</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK74">
-        <v>0.1351793167645005</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL74">
-        <v>0.06501352391564978</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM74">
-        <v>0.377308172412735</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN74">
-        <v>0.4206989560457092</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO74">
-        <v>0.8217065290003976</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP74">
-        <v>3.056629230117225</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ74">
-        <v>-0.6379881427730965</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR74">
         <v>0.4216256340467766</v>
@@ -10079,38 +10076,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>-0.2181245806736233</v>
-      </c>
       <c r="AI75">
-        <v>0.1781713082770353</v>
+        <v>-0.06041291547510212</v>
       </c>
       <c r="AJ75">
-        <v>0.2562636581710709</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK75">
-        <v>0.1351793167645005</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL75">
-        <v>0.06501352391564978</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM75">
-        <v>0.377308172412735</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN75">
-        <v>0.4206989560457092</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO75">
-        <v>0.8217065290003976</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP75">
-        <v>3.056629230117225</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ75">
-        <v>1.166593841441622</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR75">
-        <v>-0.04993664583679447</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS75">
         <v>-1.083093549703378</v>
@@ -10144,38 +10138,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.1781713082770353</v>
-      </c>
       <c r="AJ76">
-        <v>0.2562636581710709</v>
+        <v>0.1648224242223268</v>
       </c>
       <c r="AK76">
-        <v>0.1351793167645005</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL76">
-        <v>0.06501352391564978</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM76">
-        <v>0.377308172412735</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN76">
-        <v>0.4206989560457092</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO76">
-        <v>0.8217065290003976</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP76">
-        <v>3.056629230117225</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ76">
-        <v>1.166593841441622</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR76">
-        <v>0.813902517766526</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS76">
-        <v>0.3662234592800075</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT76">
         <v>-0.756372051364167</v>
@@ -10206,38 +10197,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.2562636581710709</v>
-      </c>
       <c r="AK77">
-        <v>0.1351793167645005</v>
+        <v>0.1601013878978296</v>
       </c>
       <c r="AL77">
-        <v>0.06501352391564978</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM77">
-        <v>0.377308172412735</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN77">
-        <v>0.4206989560457092</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO77">
-        <v>0.8217065290003976</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP77">
-        <v>3.056629230117225</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ77">
-        <v>1.166593841441622</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR77">
-        <v>0.813902517766526</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS77">
-        <v>0.5704845743670546</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT77">
-        <v>-1.023919595764212</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU77">
         <v>-1.594471108675521</v>
@@ -10265,38 +10253,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.1351793167645005</v>
-      </c>
       <c r="AL78">
-        <v>0.06501352391564978</v>
+        <v>-0.1118496279367926</v>
       </c>
       <c r="AM78">
-        <v>0.377308172412735</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN78">
-        <v>0.4206989560457092</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO78">
-        <v>0.8217065290003976</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP78">
-        <v>3.056629230117225</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ78">
-        <v>1.166593841441622</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR78">
-        <v>0.813902517766526</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS78">
-        <v>0.5704845743670546</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT78">
-        <v>0.1500451551298</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU78">
-        <v>-0.2547854660834332</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV78">
         <v>1.08522880488573</v>
@@ -10321,38 +10306,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.06501352391564978</v>
-      </c>
       <c r="AM79">
-        <v>0.377308172412735</v>
+        <v>0.7094762140395773</v>
       </c>
       <c r="AN79">
-        <v>0.4206989560457092</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO79">
-        <v>0.8217065290003976</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP79">
-        <v>3.056629230117225</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ79">
-        <v>1.166593841441622</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR79">
-        <v>0.813902517766526</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS79">
-        <v>0.5704845743670546</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT79">
-        <v>0.1500451551298</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU79">
-        <v>0.1319583255068934</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV79">
-        <v>1.565950786385088</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW79">
         <v>-0.150193889177217</v>
@@ -10374,38 +10356,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.377308172412735</v>
-      </c>
       <c r="AN80">
-        <v>0.4206989560457092</v>
+        <v>0.2488823926433396</v>
       </c>
       <c r="AO80">
-        <v>0.8217065290003976</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP80">
-        <v>3.056629230117225</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ80">
-        <v>1.166593841441622</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR80">
-        <v>0.813902517766526</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS80">
-        <v>0.5704845743670546</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT80">
-        <v>0.1500451551298</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU80">
-        <v>0.1319583255068934</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV80">
-        <v>0.1824167862088686</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW80">
-        <v>-0.2475555093771362</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX80">
         <v>-1.874498177919662</v>
@@ -10424,38 +10403,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.4206989560457092</v>
-      </c>
       <c r="AO81">
-        <v>0.8217065290003976</v>
+        <v>0.4796096886515347</v>
       </c>
       <c r="AP81">
-        <v>3.056629230117225</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ81">
-        <v>1.166593841441622</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR81">
-        <v>0.813902517766526</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS81">
-        <v>0.5704845743670546</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT81">
-        <v>0.1500451551298</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU81">
-        <v>0.1319583255068934</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV81">
-        <v>0.1824167862088686</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW81">
-        <v>-0.02939185084092342</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX81">
-        <v>0.386705041387188</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY81">
         <v>-2.24094337053269</v>
@@ -10471,38 +10447,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.8217065290003976</v>
-      </c>
       <c r="AP82">
-        <v>3.056629230117225</v>
+        <v>1.063910243449823</v>
       </c>
       <c r="AQ82">
-        <v>1.166593841441622</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR82">
-        <v>0.813902517766526</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS82">
-        <v>0.5704845743670546</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT82">
-        <v>0.1500451551298</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU82">
-        <v>0.1319583255068934</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV82">
-        <v>0.1824167862088686</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW82">
-        <v>-0.02939185084092342</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX82">
-        <v>-0.1595844906844107</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY82">
-        <v>-0.6950112442994083</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ82">
         <v>3.234504069499366</v>
@@ -10515,38 +10488,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>3.056629230117225</v>
-      </c>
       <c r="AQ83">
-        <v>1.166593841441622</v>
+        <v>3.018024337331767</v>
       </c>
       <c r="AR83">
-        <v>0.813902517766526</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS83">
-        <v>0.5704845743670546</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT83">
-        <v>0.1500451551298</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU83">
-        <v>0.1319583255068934</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV83">
-        <v>0.1824167862088686</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW83">
-        <v>-0.02939185084092342</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX83">
-        <v>-0.1595844906844107</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY83">
-        <v>-0.6363582368817831</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ83">
-        <v>-0.3135696110003181</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA83">
         <v>-0.1262090121580286</v>
@@ -10556,253 +10526,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>1.166593841441622</v>
-      </c>
       <c r="AR84">
-        <v>0.813902517766526</v>
+        <v>1.258413323303135</v>
       </c>
       <c r="AS84">
-        <v>0.5704845743670546</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT84">
-        <v>0.1500451551298</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU84">
-        <v>0.1319583255068934</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV84">
-        <v>0.1824167862088686</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW84">
-        <v>-0.02939185084092342</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX84">
-        <v>-0.1595844906844107</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY84">
-        <v>-0.6363582368817831</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ84">
-        <v>-0.2932067400820628</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA84">
-        <v>-0.02110736963342674</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.813902517766526</v>
-      </c>
       <c r="AS85">
-        <v>0.5704845743670546</v>
+        <v>0.7101891322523641</v>
       </c>
       <c r="AT85">
-        <v>0.1500451551298</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU85">
-        <v>0.1319583255068934</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV85">
-        <v>0.1824167862088686</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW85">
-        <v>-0.02939185084092342</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX85">
-        <v>-0.1595844906844107</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY85">
-        <v>-0.6363582368817831</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ85">
-        <v>-0.2932067400820628</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA85">
-        <v>-0.3989083931895891</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.5704845743670546</v>
-      </c>
       <c r="AT86">
-        <v>0.1500451551298</v>
+        <v>0.4175731435803101</v>
       </c>
       <c r="AU86">
-        <v>0.1319583255068934</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV86">
-        <v>0.1824167862088686</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW86">
-        <v>-0.02939185084092342</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX86">
-        <v>-0.1595844906844107</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY86">
-        <v>-0.6363582368817831</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ86">
-        <v>-0.2932067400820628</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA86">
-        <v>-0.3989083931895891</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.1500451551298</v>
-      </c>
       <c r="AU87">
-        <v>0.1319583255068934</v>
+        <v>0.09720187572322199</v>
       </c>
       <c r="AV87">
-        <v>0.1824167862088686</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW87">
-        <v>-0.02939185084092342</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX87">
-        <v>-0.1595844906844107</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY87">
-        <v>-0.6363582368817831</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ87">
-        <v>-0.2932067400820628</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA87">
-        <v>-0.3989083931895891</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.1319583255068934</v>
-      </c>
       <c r="AV88">
-        <v>0.1824167862088686</v>
+        <v>0.4031968204511159</v>
       </c>
       <c r="AW88">
-        <v>-0.02939185084092342</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX88">
-        <v>-0.1595844906844107</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY88">
-        <v>-0.6363582368817831</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ88">
-        <v>-0.2932067400820628</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA88">
-        <v>-0.3989083931895891</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.1824167862088686</v>
-      </c>
       <c r="AW89">
-        <v>-0.02939185084092342</v>
+        <v>0.03023307137173821</v>
       </c>
       <c r="AX89">
-        <v>-0.1595844906844107</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY89">
-        <v>-0.6363582368817831</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ89">
-        <v>-0.2932067400820628</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA89">
-        <v>-0.3989083931895891</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>-0.02939185084092342</v>
-      </c>
       <c r="AX90">
-        <v>-0.1595844906844107</v>
+        <v>-0.138038074217667</v>
       </c>
       <c r="AY90">
-        <v>-0.6363582368817831</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ90">
-        <v>-0.2932067400820628</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA90">
-        <v>-0.3989083931895891</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>-0.1595844906844107</v>
-      </c>
       <c r="AY91">
-        <v>-0.6363582368817831</v>
+        <v>-0.4163480595926671</v>
       </c>
       <c r="AZ91">
-        <v>-0.2932067400820628</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA91">
-        <v>-0.3989083931895891</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>-0.6363582368817831</v>
-      </c>
       <c r="AZ92">
-        <v>-0.2932067400820628</v>
+        <v>-0.3893145539522294</v>
       </c>
       <c r="BA92">
-        <v>-0.3989083931895891</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>-0.2932067400820628</v>
-      </c>
       <c r="BA93">
-        <v>-0.3989083931895891</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>-0.3989083931895891</v>
+        <v>-0.3503228904531653</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_EXPORT_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="BA2">
         <v>1.63165117816655</v>
       </c>
+      <c r="BB2">
+        <v>1.63165117816655</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="BA3">
         <v>1.358419700277324</v>
       </c>
+      <c r="BB3">
+        <v>1.358419700277324</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="BA4">
         <v>-0.1398451755242718</v>
       </c>
+      <c r="BB4">
+        <v>-0.1398451755242718</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1176,8 +1188,11 @@
       <c r="BA5">
         <v>-0.07003068004286206</v>
       </c>
+      <c r="BB5">
+        <v>-0.07003068004286206</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1337,8 +1352,11 @@
       <c r="BA6">
         <v>-7.3868590581191</v>
       </c>
+      <c r="BB6">
+        <v>-7.3868590581191</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1498,8 +1516,11 @@
       <c r="BA7">
         <v>-10.33903131837766</v>
       </c>
+      <c r="BB7">
+        <v>-10.33903131837766</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1659,8 +1680,11 @@
       <c r="BA8">
         <v>-1.060235412222937</v>
       </c>
+      <c r="BB8">
+        <v>-1.060235412222937</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="BA9">
         <v>3.423433284297019</v>
       </c>
+      <c r="BB9">
+        <v>3.423433284297019</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1981,8 +2008,11 @@
       <c r="BA10">
         <v>2.063081011733999</v>
       </c>
+      <c r="BB10">
+        <v>2.063081011733999</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2142,8 +2172,11 @@
       <c r="BA11">
         <v>2.99202665168275</v>
       </c>
+      <c r="BB11">
+        <v>2.99202665168275</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2300,8 +2333,11 @@
       <c r="BA12">
         <v>6.534207423404695</v>
       </c>
+      <c r="BB12">
+        <v>6.534207423404695</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2458,8 +2494,11 @@
       <c r="BA13">
         <v>1.294218807309846</v>
       </c>
+      <c r="BB13">
+        <v>1.294218807309846</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2613,8 +2652,11 @@
       <c r="BA14">
         <v>2.007778863461724</v>
       </c>
+      <c r="BB14">
+        <v>2.007778863461724</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2768,8 +2810,11 @@
       <c r="BA15">
         <v>2.488825190489734</v>
       </c>
+      <c r="BB15">
+        <v>2.488825190489734</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2920,8 +2965,11 @@
       <c r="BA16">
         <v>-0.02236378853282872</v>
       </c>
+      <c r="BB16">
+        <v>-0.02236378853282872</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -3072,8 +3120,11 @@
       <c r="BA17">
         <v>1.864148130528193</v>
       </c>
+      <c r="BB17">
+        <v>1.864148130528193</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3221,8 +3272,11 @@
       <c r="BA18">
         <v>0.3074416423962276</v>
       </c>
+      <c r="BB18">
+        <v>0.3074416423962276</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3370,8 +3424,11 @@
       <c r="BA19">
         <v>1.591452302439862</v>
       </c>
+      <c r="BB19">
+        <v>1.591452302439862</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3516,8 +3573,11 @@
       <c r="BA20">
         <v>1.24229439238384</v>
       </c>
+      <c r="BB20">
+        <v>1.24229439238384</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3662,8 +3722,11 @@
       <c r="BA21">
         <v>1.021051258256691</v>
       </c>
+      <c r="BB21">
+        <v>1.021051258256691</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3805,8 +3868,11 @@
       <c r="BA22">
         <v>-2.083516682089652</v>
       </c>
+      <c r="BB22">
+        <v>-2.083516682089652</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3948,8 +4014,11 @@
       <c r="BA23">
         <v>0.8945075486844729</v>
       </c>
+      <c r="BB23">
+        <v>0.8945075486844729</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -4088,8 +4157,11 @@
       <c r="BA24">
         <v>1.373553924371535</v>
       </c>
+      <c r="BB24">
+        <v>1.373553924371535</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4228,8 +4300,11 @@
       <c r="BA25">
         <v>0.3276711086097635</v>
       </c>
+      <c r="BB25">
+        <v>0.3276711086097635</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4365,8 +4440,11 @@
       <c r="BA26">
         <v>1.809509533486136</v>
       </c>
+      <c r="BB26">
+        <v>1.809509533486136</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4502,8 +4580,11 @@
       <c r="BA27">
         <v>0.4339813219297071</v>
       </c>
+      <c r="BB27">
+        <v>0.4339813219297071</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4636,8 +4717,11 @@
       <c r="BA28">
         <v>0.4041977135476031</v>
       </c>
+      <c r="BB28">
+        <v>0.4041977135476031</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="BA29">
         <v>1.507492882068462</v>
       </c>
+      <c r="BB29">
+        <v>1.507492882068462</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4901,8 +4988,11 @@
       <c r="BA30">
         <v>1.350099422002103</v>
       </c>
+      <c r="BB30">
+        <v>1.350099422002103</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -5032,8 +5122,11 @@
       <c r="BA31">
         <v>1.114800352984872</v>
       </c>
+      <c r="BB31">
+        <v>1.114800352984872</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5160,8 +5253,11 @@
       <c r="BA32">
         <v>1.516137977472326</v>
       </c>
+      <c r="BB32">
+        <v>1.516137977472326</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5288,8 +5384,11 @@
       <c r="BA33">
         <v>-0.02409266101658147</v>
       </c>
+      <c r="BB33">
+        <v>-0.02409266101658147</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5413,8 +5512,11 @@
       <c r="BA34">
         <v>-0.7388860519741201</v>
       </c>
+      <c r="BB34">
+        <v>-0.7388860519741201</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5538,8 +5640,11 @@
       <c r="BA35">
         <v>1.567695497950282</v>
       </c>
+      <c r="BB35">
+        <v>1.567695497950282</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5660,8 +5765,11 @@
       <c r="BA36">
         <v>1.091382109524247</v>
       </c>
+      <c r="BB36">
+        <v>1.091382109524247</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5782,8 +5890,11 @@
       <c r="BA37">
         <v>-0.2679292251141305</v>
       </c>
+      <c r="BB37">
+        <v>-0.2679292251141305</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5901,8 +6012,11 @@
       <c r="BA38">
         <v>1.682996656587392</v>
       </c>
+      <c r="BB38">
+        <v>1.682996656587392</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -6020,8 +6134,11 @@
       <c r="BA39">
         <v>1.591260107191601</v>
       </c>
+      <c r="BB39">
+        <v>1.591260107191601</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -6136,8 +6253,11 @@
       <c r="BA40">
         <v>1.13706115148689</v>
       </c>
+      <c r="BB40">
+        <v>1.13706115148689</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6252,8 +6372,11 @@
       <c r="BA41">
         <v>1.735453665039003</v>
       </c>
+      <c r="BB41">
+        <v>1.735453665039003</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6365,8 +6488,11 @@
       <c r="BA42">
         <v>2.625533283765208</v>
       </c>
+      <c r="BB42">
+        <v>2.625533283765208</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6478,8 +6604,11 @@
       <c r="BA43">
         <v>-0.3243298885145123</v>
       </c>
+      <c r="BB43">
+        <v>-0.3243298885145123</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6588,8 +6717,11 @@
       <c r="BA44">
         <v>0.6372341859553217</v>
       </c>
+      <c r="BB44">
+        <v>0.6372341859553217</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6698,8 +6830,11 @@
       <c r="BA45">
         <v>-0.5789332341234967</v>
       </c>
+      <c r="BB45">
+        <v>-0.5789332341234967</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6805,8 +6940,11 @@
       <c r="BA46">
         <v>0.1728728569232914</v>
       </c>
+      <c r="BB46">
+        <v>0.1728728569232914</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6912,8 +7050,11 @@
       <c r="BA47">
         <v>1.7</v>
       </c>
+      <c r="BB47">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -7016,8 +7157,11 @@
       <c r="BA48">
         <v>-1.4</v>
       </c>
+      <c r="BB48">
+        <v>-1.4</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -7120,8 +7264,11 @@
       <c r="BA49">
         <v>1.3</v>
       </c>
+      <c r="BB49">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7221,8 +7368,11 @@
       <c r="BA50">
         <v>-0.6</v>
       </c>
+      <c r="BB50">
+        <v>-0.6</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7322,8 +7472,11 @@
       <c r="BA51">
         <v>-3.292009884772611</v>
       </c>
+      <c r="BB51">
+        <v>-3.292009884772611</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7420,8 +7573,11 @@
       <c r="BA52">
         <v>-20.353166912592</v>
       </c>
+      <c r="BB52">
+        <v>-20.353166912592</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7515,8 +7671,11 @@
       <c r="BA53">
         <v>17.87631681612835</v>
       </c>
+      <c r="BB53">
+        <v>17.87631681612835</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7607,8 +7766,11 @@
       <c r="BA54">
         <v>4.395171409529297</v>
       </c>
+      <c r="BB54">
+        <v>4.395171409529297</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7696,8 +7858,11 @@
       <c r="BA55">
         <v>1.763269038133103</v>
       </c>
+      <c r="BB55">
+        <v>1.763269038133103</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7782,8 +7947,11 @@
       <c r="BA56">
         <v>1.651360288740889</v>
       </c>
+      <c r="BB56">
+        <v>1.651360288740889</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7865,8 +8033,11 @@
       <c r="BA57">
         <v>-0.6023499639201475</v>
       </c>
+      <c r="BB57">
+        <v>-0.6023499639201475</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7945,8 +8116,11 @@
       <c r="BA58">
         <v>3.773751128807561</v>
       </c>
+      <c r="BB58">
+        <v>3.773751128807561</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -8022,8 +8196,11 @@
       <c r="BA59">
         <v>0.3486937127494798</v>
       </c>
+      <c r="BB59">
+        <v>0.3486937127494798</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -8096,8 +8273,11 @@
       <c r="BA60">
         <v>0.6021692060546258</v>
       </c>
+      <c r="BB60">
+        <v>0.6021692060546258</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8167,8 +8347,11 @@
       <c r="BA61">
         <v>1.505090528591751</v>
       </c>
+      <c r="BB61">
+        <v>1.505090528591751</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8235,8 +8418,11 @@
       <c r="BA62">
         <v>-1.274647749701984</v>
       </c>
+      <c r="BB62">
+        <v>-1.274647749701984</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8300,8 +8486,11 @@
       <c r="BA63">
         <v>0.4647476577308112</v>
       </c>
+      <c r="BB63">
+        <v>0.4647476577308112</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8362,8 +8551,11 @@
       <c r="BA64">
         <v>-0.6885297541760451</v>
       </c>
+      <c r="BB64">
+        <v>-0.6885297541760451</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8421,8 +8613,11 @@
       <c r="BA65">
         <v>-0.9272934801906558</v>
       </c>
+      <c r="BB65">
+        <v>-0.9272934801906558</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8477,8 +8672,11 @@
       <c r="BA66">
         <v>-0.8572418502401149</v>
       </c>
+      <c r="BB66">
+        <v>-0.8572418502401149</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8530,8 +8728,11 @@
       <c r="BA67">
         <v>0.05364604092510206</v>
       </c>
+      <c r="BB67">
+        <v>0.05364604092510206</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8580,8 +8781,11 @@
       <c r="BA68">
         <v>1.830682919206694</v>
       </c>
+      <c r="BB68">
+        <v>1.830682919206694</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8627,8 +8831,11 @@
       <c r="BA69">
         <v>-2.604576060482884</v>
       </c>
+      <c r="BB69">
+        <v>-2.604576060482884</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8671,8 +8878,11 @@
       <c r="BA70">
         <v>-3.124437332092583</v>
       </c>
+      <c r="BB70">
+        <v>-3.124437332092583</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8712,8 +8922,11 @@
       <c r="BA71">
         <v>2.475981966946051</v>
       </c>
+      <c r="BB71">
+        <v>2.411315004676197</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8750,8 +8963,11 @@
       <c r="BA72">
         <v>-0.1262090121580286</v>
       </c>
+      <c r="BB72">
+        <v>0.2886831937783967</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8785,8 +9001,11 @@
       <c r="BA73">
         <v>-0.3503228904531653</v>
       </c>
+      <c r="BB73">
+        <v>-0.7196185376451893</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8817,8 +9036,11 @@
       <c r="BA74">
         <v>-0.3503228904531653</v>
       </c>
+      <c r="BB74">
+        <v>-0.4337369856241082</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8846,8 +9068,11 @@
       <c r="BA75">
         <v>-0.3503228904531653</v>
       </c>
+      <c r="BB75">
+        <v>-0.4337369856241082</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8872,8 +9097,11 @@
       <c r="BA76">
         <v>-0.3503228904531653</v>
       </c>
+      <c r="BB76">
+        <v>-0.4337369856241082</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8895,8 +9123,11 @@
       <c r="BA77">
         <v>-0.3503228904531653</v>
       </c>
+      <c r="BB77">
+        <v>-0.4337369856241082</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8915,8 +9146,11 @@
       <c r="BA78">
         <v>-0.3503228904531653</v>
       </c>
+      <c r="BB78">
+        <v>-0.4337369856241082</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8932,8 +9166,11 @@
       <c r="BA79">
         <v>-0.3503228904531653</v>
       </c>
+      <c r="BB79">
+        <v>-0.4337369856241082</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8946,8 +9183,11 @@
       <c r="BA80">
         <v>-0.3503228904531653</v>
       </c>
+      <c r="BB80">
+        <v>-0.4337369856241082</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8957,13 +9197,27 @@
       <c r="BA81">
         <v>-0.3503228904531653</v>
       </c>
+      <c r="BB81">
+        <v>-0.4337369856241082</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>-0.3503228904531653</v>
+      </c>
+      <c r="BB82">
+        <v>-0.4337369856241082</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>-0.4337369856241082</v>
       </c>
     </row>
   </sheetData>
